--- a/Data/Transitions/19281954Translation.xlsx
+++ b/Data/Transitions/19281954Translation.xlsx
@@ -52,13 +52,13 @@
     <t>{10.0: 1.0}</t>
   </si>
   <si>
-    <t>{11.0: 1.0, 73.0: 0.00042098229282040413}</t>
+    <t>{11.0: 1.0, 73.0: 0.0004209803034445382}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9990105540897097, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.823785824440137e-05}</t>
+    <t>{14.0: 0.9990105540897097, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.862468055472948e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -67,7 +67,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0, 995.0: 1.0}</t>
@@ -94,22 +94,22 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 90.0: 0.005317945236478841, 246.0: 0.0014045075103535124, 681.0: 0.005656892172708382, 741.0: 0.0013812154696132596}</t>
+    <t>{46.0: 1.0, 90.0: 0.005340909090909091, 246.0: 0.0014045099541301804, 681.0: 0.005656892172708382, 741.0: 0.0013892747985551543}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038}</t>
-  </si>
-  <si>
-    <t>{49.0: 0.8933886722844087}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448}</t>
+  </si>
+  <si>
+    <t>{49.0: 0.8868973492261164}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -139,34 +139,34 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8429468776573892, 888.0: 0.006491762867531044}</t>
+    <t>{73.0: 0.8429428942637804, 888.0: 0.0064918045262522235}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.13643574699810795}</t>
+    <t>{75.0: 1.0, 917.0: 0.13677505342411111}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993480032599837}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9948036115071597, 172.0: 0.0017460035917788175}</t>
+    <t>{79.0: 0.9993761696818465}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9948093683812907, 172.0: 0.0017369111696087657}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491}</t>
@@ -178,10 +178,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.994052232029912, 178.0: 0.008741636293170308, 492.0: 0.0026447608446060716, 97.0: 1.3291445142580957e-05, 696.0: 3.4539568464333804e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.8967637375132628, 694.0: 0.006483790523690773}</t>
+    <t>{85.0: 0.9940170594048064, 178.0: 0.008787936260567477, 492.0: 0.0026448839746169156, 97.0: 1.3250883392226149e-05, 696.0: 3.3556181386114524e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.8967465145821124, 694.0: 0.006483790523690773}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -190,13 +190,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9946820547635211}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9615284042749032, 92.0: 0.040265849431765505, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9597341505682345, 91.0: 0.03813849167117715, 858.0: 0.11116858391946506, 543.0: 0.0020919239215290435}</t>
+    <t>{90.0: 0.9946590909090909}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9615324172454731, 92.0: 0.0395714828352435, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9604285171647565, 91.0: 0.038138650843432466, 858.0: 0.10346854860717557, 543.0: 0.0019470278771747682}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,10 +208,10 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9951227788408464}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.44695487535500156}</t>
+    <t>{97.0: 0.9951567948489588}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.4517299630857786}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -232,16 +232,16 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.008041738771458164, 86.0: -1.7825636407842836e-05, 543.0: -8.621046374552892e-06}</t>
-  </si>
-  <si>
-    <t>{107.0: -0.005397783378865379, 86.0: -1.1964940251659625e-05, 543.0: -5.786626767105416e-06, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467, 86.0: 0.0008838891141578506, 543.0: 0.000445152667124915}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 86.0: 0.0013519135389946312, 543.0: 0.0006808635924644594, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.8367273519846401}</t>
+    <t>{109.0: 1.0, 110.0: 0.8366630142044656}</t>
   </si>
   <si>
     <t>{139.0: 0.6493268053855569}</t>
@@ -253,13 +253,13 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 0.9325995807127883, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04832944130170801}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9506590101861113}</t>
+    <t>{142.0: 0.9325995807127883, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04467886430582105}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9543139172956562}</t>
   </si>
   <si>
     <t>{145.0: 0.9980884254689805}</t>
@@ -280,10 +280,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054, 975.0: 0.0007626722792535179}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00015302591742855296}</t>
+    <t>{152.0: 0.9280286630608138, 975.0: 0.0007626456248778554}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.0001543025857522946}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -292,10 +292,10 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 1.0, 914.0: 0.044090464810719994, 110.0: 0.002611402393722663}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{165.0: 1.0, 914.0: 0.044090464810719994, 110.0: 0.0026124314199263577}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0, 596.0: 1.0}</t>
@@ -307,16 +307,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.7161445274155449}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9982531055900621, 81.0: 0.004688835629826501}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.001843951069630992, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.004820511450036743, 212.0: 4.511520929137317e-06}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.0065949395099733615}</t>
+    <t>{171.0: 0.7191593884581571}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9982622127823905, 81.0: 0.004688878406681026}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0018593348291972536, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0048126323873231005, 212.0: 4.4933219741992875e-06}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.006574812569522062}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -328,40 +328,40 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9759748680013169, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4138999238272808, 850.0: 0.0011018966358130604, 277.0: 4.38094565749719e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5861000761727191, 850.0: 0.001560332981491432, 277.0: 6.203607287057942e-05}</t>
+    <t>{178.0: 0.9759282428739054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.4137337614901977, 850.0: 0.0011036579166127315, 277.0: 4.408673998884865e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5862662385098023, 850.0: 0.0015638979353379187, 277.0: 6.247149647233791e-05}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9978009547940806, 277.0: 0.0023339836856795435, 282.0: 0.0027799841143764893}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0012746234067207416}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9917785638508975, 171.0: 0.0036495214120508754, 593.0: 0.0009448311481210115, 778.0: 0.0005930931548929425}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346, 543.0: 0.008612127279709971}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.181315320072715}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.7663743002352303}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9989618864007118, 857.0: 0.00537477625323952}</t>
+    <t>{182.0: 0.9977922838424979, 277.0: 0.0023355325289895535, 282.0: 0.0028089887640449437}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0012796649604467194}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917621971834255, 171.0: 0.0036220285020085534, 593.0: 0.000944548826804739, 778.0: 0.0005775144643994738}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353, 543.0: 0.006119152019756793}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7358031956941439}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.7759206783389275}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9989611160581775, 857.0: 0.005373166020931479}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -370,22 +370,22 @@
     <t>{206.0: 1.0, 578.0: 0.18204845814977974}</t>
   </si>
   <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 1.0, 82.0: 0.0010321439103509289, 788.0: -0.0002023300897359477}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 1.0, 82.0: 0.0010321439103509289, 788.0: -0.00017673394070562247}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.001962595243592704}</t>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.001962595243592704}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -394,31 +394,31 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.2727846961866583}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.0070047205725597686}</t>
+    <t>{265.0: 0.20300968880857473}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.006847275974992557}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563, 999.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144, 999.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
-  </si>
-  <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{221.0: 0.29241719930273097, 999.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269, 999.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
+  </si>
+  <si>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -427,10 +427,10 @@
     <t>{226.0: 0.7384353461125667}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10661132771559133}</t>
+    <t>{49.0: 0.11310265077388365}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,16 +457,19 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.002564069085859641}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025205205174975535}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -475,10 +478,10 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.3665829731478953, 543.0: 0.0068982050838109765}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9961354256592442}</t>
+    <t>{858.0: 0.26046723041719105, 543.0: 0.004901363414675411}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9961315884520018}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -487,7 +490,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996}</t>
+    <t>{249.0: 0.904978210564596}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -499,7 +502,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9957911940720351}</t>
+    <t>{253.0: 0.9958347426403972}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -523,28 +526,28 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9778834229020257, 79.0: 0.0006519967400162999}</t>
-  </si>
-  <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.5219532671708194}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686}</t>
-  </si>
-  <si>
-    <t>{267.0: 0.9917627677100495}</t>
-  </si>
-  <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{262.0: 0.9778834229020257, 79.0: 0.0006238303181534623}</t>
+  </si>
+  <si>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.5917282745489029}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092}</t>
+  </si>
+  <si>
+    <t>{267.0: 0.9914588315681585}</t>
+  </si>
+  <si>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -559,7 +562,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9184602297788417}</t>
+    <t>{277.0: 0.9182483933057883}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -568,10 +571,10 @@
     <t>{280.0: 1.0}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005053750609359766, 621.0: 0.04563312178906014}</t>
-  </si>
-  <si>
-    <t>{282.0: 0.9972200158856235, 182.0: 0.0009244217991987239, 277.0: 0.003326032906596944}</t>
+    <t>{281.0: 1.0, 599.0: 0.005052641409470727, 621.0: 0.04563312178906014}</t>
+  </si>
+  <si>
+    <t>{282.0: 0.9971910112359551, 182.0: 0.0009280511970553328, 277.0: 0.0033252657802072005}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -580,16 +583,16 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.057003881354220694}</t>
-  </si>
-  <si>
-    <t>{286.0: 1.0, 909.0: 0.05471677235106734}</t>
+    <t>{285.0: 1.0, 311.0: 0.08782941840400513}</t>
+  </si>
+  <si>
+    <t>{286.0: 1.0, 909.0: 0.055654435197145524}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
+    <t>{288.0: 0.9978511952726296}</t>
   </si>
   <si>
     <t>{289.0: 1.0}</t>
@@ -610,10 +613,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.12648512248974872}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.8735148775102513, 297.0: 0.004759120184553127}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.12648512248974872}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.8735148775102513, 297.0: 0.004786184211172354}</t>
   </si>
   <si>
     <t>{299.0: 0.9421714285714285}</t>
@@ -625,7 +628,7 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 0.9475683890577508, 144.0: 0.000958511394140859, 840.0: 0.10136869118905047}</t>
+    <t>{303.0: 0.9475683890577508, 144.0: 0.0009544083153175263, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -640,25 +643,25 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506, 857.0: 5.585426628960308e-06}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993, 857.0: 5.5879010765889695e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -667,31 +670,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.5530451246449984}</t>
+    <t>{398.0: 1.0, 98.0: 0.5482700369142214}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 476.0: 0.017708674968506914, 141.0: 0.0015162157654260925}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.24571753336152957, 907.0: 0.3609253569492138}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.3096939584397832}</t>
+    <t>{402.0: 0.9983019057254231, 476.0: 0.017708604760049776, 141.0: 0.0015162157654260925}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.35005776247073445, 907.0: 0.5163452332102312}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.31245635026236357}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -700,16 +700,16 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.9929952794274403}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.9931527240250074}</t>
   </si>
   <si>
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.4350812208144059, 907.0: 0.6390746430507862}</t>
+    <t>{404.0: 0.32789516505867994, 907.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -718,7 +718,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.036121526630896655}</t>
+    <t>{415.0: 1.0, 277.0: 0.03614478949162754}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -727,46 +727,46 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.9961880559085133}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.8593766787553003, 212.0: 0.0008042913936419551}</t>
+    <t>{418.0: 0.996164500319625}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8579720388500257, 212.0: 0.0008010469749503779}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14895191648718398}</t>
+    <t>{597.0: 0.13743568393910327}</t>
   </si>
   <si>
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29759273185332574, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7024072681466742}</t>
+    <t>{431.0: 0.2217269368149083, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7782730631850917}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -799,7 +799,7 @@
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096}</t>
+    <t>{443.0: 0.9625164401578256}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875}</t>
@@ -808,13 +808,13 @@
     <t>{476.0: 0.982261273209549}</t>
   </si>
   <si>
-    <t>{477.0: 0.08064737321770447}</t>
+    <t>{477.0: 0.080645882789361}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -838,16 +838,16 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0, 492.0: 0.22436055090998525}</t>
   </si>
   <si>
-    <t>{492.0: 0.7660189137195403, 97.0: 0.004860304774426683, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243}</t>
+    <t>{492.0: 0.7660545766481357, 97.0: 0.004826340390360104, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -865,19 +865,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9171511627906976}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9184549356223176}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605, 857.0: 4.435158886417873e-06}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.9933818663136995, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106, 857.0: 4.434114317499588e-06}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -892,10 +892,10 @@
     <t>{507.0: 0.9989233419465977}</t>
   </si>
   <si>
-    <t>{529.0: 1.0, 530.0: 0.01221001221001221}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.9877899877899878}</t>
+    <t>{529.0: 1.0, 530.0: 0.012586532410320957}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9874134675896791}</t>
   </si>
   <si>
     <t>{531.0: 1.0, 262.0: 0.02211657709797437, 442.0: 0.0021008403361344537}</t>
@@ -907,16 +907,16 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 476.0: 1.1734260202532035e-05, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 476.0: 1.1734213680457066e-05, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{536.0: 0.5216757544674189}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -928,16 +928,16 @@
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 0.10538281020827223, 911.0: 0.01249604555520405}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8946171897917278}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.980110380594447}</t>
-  </si>
-  <si>
-    <t>{544.0: 1.0, 975.0: 0.0007079704314882281}</t>
+    <t>{542.0: 0.09915131442765474, 911.0: 0.012482224680044242}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9008486855723453}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.9800564019401017}</t>
+  </si>
+  <si>
+    <t>{544.0: 1.0, 975.0: 0.000707939738530667}</t>
   </si>
   <si>
     <t>{545.0: 1.0}</t>
@@ -967,7 +967,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -985,10 +985,10 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.934531880683397, 728.0: 0.09586836317089112, 752.0: 0.04612635356536104}</t>
+    <t>{573.0: 0.5470310513891411}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.9345705516877141, 728.0: 0.0954063461224314, 752.0: 0.046284020554380495}</t>
   </si>
   <si>
     <t>{581.0: 0.9906564163217031}</t>
@@ -997,13 +997,13 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 742.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 742.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928}</t>
+    <t>{585.0: 0.9874713727603395}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1015,7 +1015,7 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1024,22 +1024,22 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.32222566945663483, 686.0: 0.0031784310045871716, 171.0: 0.001344575637659295}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6745488866890498, 686.0: 0.006653743940318745, 171.0: 0.0028147416094494553}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077, 476.0: 1.8317561741481748e-05}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8484385079682668}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017882490564377636}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9770637588262626}</t>
+    <t>{593.0: 0.4952232063620879, 686.0: 0.004833238028639742, 171.0: 0.0020751461355047337}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5015556694602002, 686.0: 0.004895041072333087, 171.0: 0.0021016812133392445}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674, 476.0: 1.8387816720691333e-05}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.859921524409961}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.018098046241080627}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9768493123494487}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1054,19 +1054,19 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.001210493923590672}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.001210545166590409}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46334982591167306}</t>
@@ -1087,7 +1087,7 @@
     <t>{614.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.9872775882732553}</t>
+    <t>{615.0: 0.9874499818115678}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1096,10 +1096,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0009433937212400633, 789.0: 0.004051324983440062}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.010772210118615348, 861.0: 0.015839714675338297, 253.0: 2.6052162294964303e-05}</t>
+    <t>{618.0: 1.0, 246.0: 0.0009489582591142481, 789.0: 0.004051002677320427}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.010616724323034713, 861.0: 0.015856347789562113, 253.0: 2.607951939072716e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1111,7 +1111,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1123,10 +1123,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1147,19 +1147,19 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.001177581845678005}</t>
+    <t>{702.0: 0.001070622812488529}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9940650146591502}</t>
   </si>
   <si>
-    <t>{681.0: 0.9820504535674003, 171.0: 0.003417356334268778}</t>
+    <t>{681.0: 0.9819650489176246, 171.0: 0.0034317428918510754}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
@@ -1174,10 +1174,10 @@
     <t>{685.0: 0.7021698553429772}</t>
   </si>
   <si>
-    <t>{686.0: 0.9797093010679292}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088, 502.0: 4.33979353343334e-05}</t>
+    <t>{686.0: 0.9798120995249867}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479, 502.0: 4.302427357788537e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1189,28 +1189,28 @@
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.027943409349163437}</t>
+    <t>{692.0: 1.0, 110.0: 0.02795442048268693}</t>
   </si>
   <si>
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{694.0: 0.9935162094763093, 86.0: 0.10101962291233192}</t>
-  </si>
-  <si>
-    <t>{695.0: 0.9726124982080356, 857.0: 0.0023941550953976375}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.006957536667623922, 14.0: 0.0009894459102902375, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{694.0: 0.9935162094763093, 86.0: 0.10101768276473509}</t>
+  </si>
+  <si>
+    <t>{695.0: 0.9726649784458168, 857.0: 0.002393591223829053}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006921363786707522, 14.0: 0.0009894459102902375, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.17918043031872155}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.8208195696812784}</t>
+    <t>{698.0: 0.41478628942427037}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5852137105757296}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1219,7 +1219,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8094192929256746}</t>
+    <t>{702.0: 0.8093908462413278}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1231,7 +1231,7 @@
     <t>{707.0: 0.9443909153475568}</t>
   </si>
   <si>
-    <t>{728.0: 0.8975351603481472, 580.0: 0.0011651796633188876}</t>
+    <t>{728.0: 0.8980336806492075, 580.0: 0.0011700143411042772}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1243,7 +1243,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.15663214004979042, 888.0: 0.6845827597220233}</t>
+    <t>{734.0: 1.0, 73.0: 0.156636125432775, 888.0: 0.6845807356371736}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1252,28 +1252,28 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.16773074800977378, 246.0: 0.0002554275350402646}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 742.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.5631107081696384}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.42358977000904163}</t>
+    <t>{740.0: 1.0, 789.0: 0.1677175283732661, 246.0: 0.000255116027440638}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 742.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.6499878944395125}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.3393572469437298}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1294,7 +1294,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.06430293965328407, 728.0: 0.006596476480961698}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.06425943397118168, 728.0: 0.006559973228361119}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1336,7 +1336,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.004195915018970644}</t>
+    <t>{770.0: 1.0, 992.0: 0.004189527220903865}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1345,7 +1345,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.34200974234125203}</t>
+    <t>{992.0: 0.3420146417863564}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1357,34 +1357,34 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.999406906845107, 171.0: 0.01832283853376267, 184.0: 0.008221436149102493, 593.0: 0.001243463922487012, 420.0: 0.0013266766813100044, 212.0: 1.2416378792924353e-06}</t>
+    <t>{778.0: 0.9994224855356005, 171.0: 0.01811161633281786, 184.0: 0.008237802816574552, 593.0: 0.001243129278002249, 420.0: 0.0013245082456821442, 212.0: 1.2366292553340148e-06}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.000507552863013857, 172.0: 8.908181590708252e-07}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.0005017532120282234, 172.0: 8.760480008114152e-07}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9958950969213227, 889.0: 0.5748804429901837}</t>
+    <t>{785.0: 0.9958950969213227, 889.0: 0.2574101205905556}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.08284883720930232}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.041453388785100964}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.8282179270067861, 246.0: 0.0012612455741220093}</t>
+    <t>{787.0: 1.0, 500.0: 0.0815450643776824}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.036209249771767926}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.8282314689494136, 246.0: 0.0012598273073130893}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1393,19 +1393,19 @@
     <t>{832.0: 1.0}</t>
   </si>
   <si>
-    <t>{833.0: 1.0, 17.0: 0.015066543902234872, 918.0: 0.0009159606136936112}</t>
+    <t>{833.0: 1.0, 17.0: 0.01506752864366639, 918.0: 0.0009159606136936112}</t>
   </si>
   <si>
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0, 980.0: 0.30157180612251394}</t>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0, 980.0: 0.30157180612251394}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1414,7 +1414,7 @@
     <t>{839.0: 1.0}</t>
   </si>
   <si>
-    <t>{840.0: 0.852224123182207, 303.0: 0.05243161094224924, 144.0: 5.3037118039871105e-05}</t>
+    <t>{840.0: 0.852224123182207, 303.0: 0.05243161094224924, 144.0: 5.281008320521998e-05}</t>
   </si>
   <si>
     <t>{841.0: 1.0}</t>
@@ -1423,7 +1423,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1435,25 +1435,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.7423394242266101}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.7475404131057521}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956, 277.0: 0.03965238146853967}</t>
+    <t>{850.0: 0.9973324441480493, 277.0: 0.039839460656926125}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.002205417628560592}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 202.0: 0.7249194398222232, 680.0: 0.00593498534084983, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022774665945529964}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 202.0: 0.7248987685431864, 680.0: 0.00593498534084983, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1462,10 +1462,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9922024767270339, 695.0: 0.01804123711340206}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06458457458327624, 543.0: 0.0012153255152589544}</t>
+    <t>{857.0: 0.9922046537749547, 695.0: 0.017988252569750368}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.31088152297049804, 543.0: 0.0058500384887019705}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1474,13 +1474,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.8897969324361419, 253.0: 0.00146348179676997, 490.0: 0.04277317100117222}</t>
+    <t>{861.0: 0.895224211041845, 253.0: 0.0014724082418451398, 490.0: 0.04318803107812268}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.9837473879730672}</t>
+    <t>{3.0: 0.9830426356589147}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1489,13 +1489,13 @@
     <t>{886.0: 0.4020987553892459}</t>
   </si>
   <si>
-    <t>{887.0: 0.9429808722412276, 267.0: 0.007852137363187687}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.30892547741044557}</t>
-  </si>
-  <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{887.0: 0.9431290889943733, 267.0: 0.008141864331149516}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.30892745983657405}</t>
+  </si>
+  <si>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1507,64 +1507,64 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
-  </si>
-  <si>
-    <t>{906.0: 0.9929245283018868, 477.0: 0.002241450061637145}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5284090305469189}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.9452832276489327}</t>
-  </si>
-  <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05, 502.0: 2.99421255704161e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.0943633528885198, 253.0: 0.0001552028830403286, 490.0: 0.004536113445900516}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
+  </si>
+  <si>
+    <t>{906.0: 0.9929245283018868, 477.0: 0.0022414086378366033}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.5258825654402548}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.9443455648028545}</t>
+  </si>
+  <si>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05, 502.0: 2.968432005164577e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.08891944116859278, 253.0: 0.00014624908086939602, 490.0: 0.004289713728998983}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{914.0: 0.95590953518928, 110.0: 0.13225596173777687}</t>
-  </si>
-  <si>
-    <t>{915.0: 1.0, 171.0: 0.25325887987017, 420.0: 0.13447613311335305}</t>
+    <t>{914.0: 0.95590953518928, 110.0: 0.13230807735601716}</t>
+  </si>
+  <si>
+    <t>{915.0: 1.0, 171.0: 0.2504542281463881, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.863564253001892}</t>
+    <t>{917.0: 0.8632249465758889}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125, 695.0: 0.007544505480605318, 857.0: 1.8571338813685616e-05}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632, 695.0: 0.0075449125671298, 857.0: 1.85669648907231e-05}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.010458523987164852}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9954399236881233, 887.0: 0.046246917640156975, 267.0: 0.00038509492676288854}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.010459621374040539}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9953319477803265, 887.0: 0.046254186682591875, 267.0: 0.00039930410069196}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1582,7 +1582,7 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 1.0, 3.0: 0.0162526120269329, 418.0: 0.0038119440914866584, 922.0: 0.0011441647597254005}</t>
+    <t>{928.0: 1.0, 3.0: 0.01695736434108527, 418.0: 0.0038354996803750267, 922.0: 0.0011800404585300068}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1591,19 +1591,19 @@
     <t>{932.0: 1.0, 108.0: 0.0004756016360696281}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918, 249.0: 0.09421646692390045, 299.0: 0.05782857142857143}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543, 249.0: 0.09502178943540394, 299.0: 0.05782857142857143}</t>
   </si>
   <si>
     <t>{934.0: 1.0, 5.0: 0.0029201396313996318}</t>
   </si>
   <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355, 85.0: 0.0035962086312661835}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923, 85.0: 0.003634651862191165}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1612,19 +1612,19 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.00212017325621649, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.3506731946144431, 615.0: 0.012722411726744723}</t>
+    <t>{971.0: 1.0, 975.0: 0.0021634278806931177, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.3506731946144431, 615.0: 0.012550018188432157}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1633,16 +1633,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9964091840330419, 152.0: 0.07154402341844747}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9963659867558985, 152.0: 0.07154462475655347}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1660,13 +1660,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.37392488484691844}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27544565774862106}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.0841020217308058}</t>
+    <t>{992.0: 0.42961599983178916}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.21976384529210544}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.07523380214485471}</t>
   </si>
   <si>
     <t>{5.0: 1.0}</t>
@@ -1678,7 +1678,7 @@
     <t>{11.0: 0.9970355731225297, 73.0: 0.0029644268774703555}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994832, 178.0: 0.0006459948320413437, 623.0: 0.0016149870801033589, 696.0: 0.005721431161519686, 492.0: 9.252232685240913e-05}</t>
+    <t>{14.0: 0.991930277598451, 178.0: 0.0006455777921239509, 623.0: 0.0016139444803098778, 696.0: 0.005717900736820557, 492.0: 9.229939229500005e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1693,7 +1693,7 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9670222461794376, 90.0: 0.014019138053804303, 246.0: 0.0033871485331342303, 681.0: 0.014145747245030031, 741.0: 0.00142571998859424}</t>
+    <t>{46.0: 0.9670222461794376, 90.0: 0.014019138053804293, 246.0: 0.0033871485331342303, 681.0: 0.014145747245030031, 741.0: 0.00142571998859424}</t>
   </si>
   <si>
     <t>{48.0: 0.9182990922121357, 443.0: 0.0817009077878643}</t>
@@ -1708,22 +1708,22 @@
     <t>{73.0: 0.9914168937329702, 888.0: 0.008583106267029973}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487783, 917.0: 0.22668409045122154}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.7755896859332865, 917.0: 0.22441031406671372}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613502, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699433, 172.0: 0.0014617321300571375}</t>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.0014629265508203813}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605862, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620284e-06}</t>
+    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605862, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.478103030671848e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180959, 694.0: 0.011355364681904206}</t>
@@ -1738,10 +1738,10 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 0.9628148011524466, 92.0: 0.004566266646967782, 104.0: 0.021051731640396545, 294.0: 0.00360459378887126, 566.0: 0.00796260677131807}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.5389854947099075, 91.0: 0.3314697194467064, 858.0: 0.12789938287627584, 543.0: 0.0016454029671103072}</t>
+    <t>{91.0: 0.9628148011524469, 92.0: 0.004334749724608858, 104.0: 0.021283248562755458, 294.0: 0.00360459378887126, 566.0: 0.00796260677131807}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.5389854947099075, 91.0: 0.33146971944670656, 858.0: 0.12789938287627584, 543.0: 0.0016454029671103077}</t>
   </si>
   <si>
     <t>{97.0: 1.0}</t>
@@ -1750,16 +1750,16 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.9974495015699064, 86.0: 0.001732084107843088, 543.0: 0.0008184143222506396}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.9801546119128088, 86.0: 0.0017020513057064291, 543.0: 0.0008042237438054802, 505.0: 0.017339113037679228}</t>
+    <t>{107.0: 0.9974548159024924, 86.0: 0.0017320933362511442, 543.0: 0.0008130907612562256}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9801598340995815, 86.0: 0.0017020603741020744, 543.0: 0.0007989924886369113, 505.0: 0.017339113037679228}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 0.778344322842229, 110.0: 0.22165567715777137}</t>
+    <t>{109.0: 0.7783443228422288, 110.0: 0.22165567715777137}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1771,7 +1771,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273637}</t>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.01528807758128922}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1786,13 +1786,13 @@
     <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888536}</t>
   </si>
   <si>
-    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.021891522984659927, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.021891672992387104, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.9799457697103969, 914.0: 0.019393847876713152, 110.0: 0.0006603824128895607}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051425, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{167.0: 0.4191015179433184, 596.0: 0.5808984820566816}</t>
@@ -1804,34 +1804,34 @@
     <t>{172.0: 0.9946275071633239, 81.0: 0.005372492836676218}</t>
   </si>
   <si>
-    <t>{173.0: 0.9475333905575845, 404.0: 0.0060983645409981285, 185.0: 0.0374704936745111, 700.0: 0.0008793088093461032, 420.0: 0.008017123377847022, 212.0: 1.3190397133673941e-06}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9852869053457577, 502.0: 0.014713094654242276}</t>
+    <t>{173.0: 0.9475398833598638, 404.0: 0.006091871738718653, 185.0: 0.0374704936745111, 700.0: 0.0008793088093461032, 420.0: 0.008017123377847022, 212.0: 1.3190397133673941e-06}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9852869053457574, 502.0: 0.014713094654242276}</t>
   </si>
   <si>
     <t>{175.0: 0.9818551540747693, 399.0: 0.01814484592523072}</t>
   </si>
   <si>
-    <t>{178.0: 0.9862602263863139, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5950678828464971, 180.0: 0.4047509394724499, 850.0: 0.00016351345391478218, 277.0: 1.7664227138239243e-05}</t>
+    <t>{178.0: 0.9862044958405797, 681.0: 0.007227483624919333, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5960977403468276, 180.0: 0.4037215427584727, 850.0: 0.00016309759271290262, 277.0: 1.7619301986503348e-05}</t>
   </si>
   <si>
     <t>{180.0: 0.999552572706935, 850.0: 0.00040380460573048857, 277.0: 4.3622687334388525e-05}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971744383835213, 277.0: 0.0020032995522036297, 282.0: 0.0008222620642749617}</t>
-  </si>
-  <si>
-    <t>{183.0: 0.9962354551676935, 182.0: 0.0037645448323066406}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9835310975016114, 171.0: 0.011387480521058113, 593.0: 0.003396785858732227, 778.0: 0.001684636118598383}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947866}</t>
+    <t>{182.0: 0.9971634886605054, 277.0: 0.0020111203123151546, 282.0: 0.0008253910271794812}</t>
+  </si>
+  <si>
+    <t>{183.0: 0.9964005235602094, 182.0: 0.0035994764397905762}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9834880171812896, 171.0: 0.011407602914240292, 593.0: 0.003406010339252075, 778.0: 0.001698369565217391}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947868}</t>
   </si>
   <si>
     <t>{311.0: 1.0}</t>
@@ -1843,13 +1843,13 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744951, 857.0: 0.005385190725504863}</t>
+    <t>{204.0: 0.9946682464454972, 857.0: 0.005331753554502373}</t>
   </si>
   <si>
     <t>{206.0: 0.8017747931406644, 578.0: 0.19822520685933565}</t>
   </si>
   <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.44800625488663026, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639668, 688.0: 0.0019142983360329847}</t>
@@ -1870,16 +1870,13 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.9893097838717172, 409.0: 0.010690216128282594}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310288, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345011, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{218.0: 0.9891098484848485, 409.0: 0.010890151515151514}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.09984639016897082}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.841323611564875, 490.0: 0.0027697896677032928, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1891,10 +1888,10 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628103, 297.0: 0.0001804561835678022, 844.0: 0.002257761053621825}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.9923809523809519, 738.0: 0.007619047619047619}</t>
+    <t>{227.0: 0.9975636241524385, 297.0: 0.00017861479393955934, 844.0: 0.002257761053621825}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.9923809523809519, 738.0: 0.007619047619047624}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427761, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
@@ -1903,7 +1900,7 @@
     <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364936}</t>
+    <t>{240.0: 0.2375030654635065, 241.0: 0.7624969345364936}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1927,7 +1924,7 @@
     <t>{262.0: 0.9992897727272727, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
@@ -1936,13 +1933,13 @@
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 0.9873640905083753, 479.0: 0.012356147657862112, 942.0: 0.0002797618337629159}</t>
+    <t>{270.0: 0.9873640905083753, 479.0: 0.012350620848352223, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{272.0: 0.8427700348432053, 203.0: 0.15722996515679444}</t>
   </si>
   <si>
-    <t>{275.0: 0.9901029295328584, 921.0: 0.009897070467141725}</t>
+    <t>{275.0: 0.9901029295328582, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -1951,22 +1948,22 @@
     <t>{281.0: 0.9619157530294288, 599.0: 0.009040200038468936, 621.0: 0.029044046932102323}</t>
   </si>
   <si>
-    <t>{282.0: 0.986540094600859, 182.0: 0.003150627048625497, 277.0: 0.010309278350515464}</t>
+    <t>{282.0: 0.9864431721116684, 182.0: 0.0032475495378161932, 277.0: 0.010309278350515464}</t>
   </si>
   <si>
     <t>{285.0: 0.9141291469502109, 311.0: 0.08587085304978906}</t>
   </si>
   <si>
-    <t>{286.0: 0.9038647175249137, 909.0: 0.09613528247508593}</t>
+    <t>{286.0: 0.9042955098938932, 909.0: 0.09570449010610674}</t>
   </si>
   <si>
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9603432910825851, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9860774179938828, 297.0: 0.013922582006117505}</t>
+    <t>{297.0: 0.9603432320318248, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9860788863109047, 297.0: 0.013921113689095125}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -1975,22 +1972,22 @@
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701205, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
-  </si>
-  <si>
-    <t>{306.0: 0.9617261904761899, 142.0: 0.03827380952380952}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662859, 426.0: 0.0731432659158121, 204.0: 0.0010707941656292628, 857.0: 5.797652272921262e-06}</t>
+    <t>{303.0: 0.9111062991603585, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
+  </si>
+  <si>
+    <t>{306.0: 0.9617261904761909, 142.0: 0.03827380952380952}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879629, 426.0: 0.07086273685860801, 204.0: 0.001018084182646364, 857.0: 5.457270782499869e-06}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392756, 5.0: 0.05300183025736113, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.0073159579332418845}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452714, 71.0: 0.017762842054728757}</t>
+    <t>{315.0: 0.9926840420667584, 217.0: 0.0073159579332418845}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534322, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.5643116392383036, 98.0: 0.43568836076169654}</t>
@@ -2008,10 +2005,10 @@
     <t>{404.0: 0.7774172615184942, 907.0: 0.22258273848150556}</t>
   </si>
   <si>
-    <t>{405.0: 0.3647447487468991, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.643194857417948}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -2023,13 +2020,13 @@
     <t>{414.0: 0.9969001859888407, 759.0: 0.0030998140111593306}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391353, 17.0: 0.01478953356086462}</t>
+    <t>{419.0: 0.9852607709750565, 17.0: 0.01473922902494331}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597468, 212.0: 0.00016450074025333114}</t>
@@ -2038,7 +2035,7 @@
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0479628674574523}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04788877445932027}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2050,7 +2047,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243406, 783.0: 0.00018839487565938207}</t>
+    <t>{431.0: 0.9996376811594206, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2074,22 +2071,22 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977861, 942.0: 0.022140221402214017}</t>
-  </si>
-  <si>
-    <t>{483.0: 0.9609996213555474, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923823, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869781, 503.0: 0.022113022113022112}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.02257761053621825}</t>
+  </si>
+  <si>
+    <t>{483.0: 0.9609996213555468, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066561, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294476, 503.0: 0.022085889570552155}</t>
   </si>
   <si>
     <t>{491.0: 0.6155305025813929, 492.0: 0.384469497418607}</t>
   </si>
   <si>
-    <t>{492.0: 0.9810074512863981, 97.0: 0.002446549374644078, 696.0: 0.0004937625084625475, 85.0: 0.000527242705573207, 178.0: 0.015524994124921808}</t>
+    <t>{492.0: 0.9810074371926921, 97.0: 0.002446549374644078, 696.0: 0.0004937766021689648, 85.0: 0.000527242705573207, 178.0: 0.015524994124921808}</t>
   </si>
   <si>
     <t>{499.0: 1.0}</t>
@@ -2098,7 +2095,7 @@
     <t>{500.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409934, 695.0: 0.0011700158119279725, 857.0: 7.285812748269429e-06}</t>
+    <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409934, 695.0: 0.0011699865195521572, 857.0: 7.315105124084837e-06}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2164,13 +2161,13 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9508128503796296, 728.0: 0.03737004208469149, 752.0: 0.011817107535678575}</t>
+    <t>{580.0: 0.9509533902357749, 728.0: 0.037509513562591704, 752.0: 0.011537096201632943}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.3853415807950608, 758.0: 0.003812636165577342}</t>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.38534158079506087, 758.0: 0.003812636165577342}</t>
   </si>
   <si>
     <t>{585.0: 1.0}</t>
@@ -2182,10 +2179,13 @@
     <t>{589.0: 0.9755777741353876, 145.0: 0.0014751680052450418, 743.0: 0.022947057859367317}</t>
   </si>
   <si>
-    <t>{593.0: 0.991207567281932, 686.0: 0.005427172557571231, 171.0: 0.003365260160497023}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984784, 476.0: 9.356078478926186e-06}</t>
+    <t>{593.0: 0.9912172314130087, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.9912172314130088, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984776, 476.0: 9.356078478926186e-06}</t>
   </si>
   <si>
     <t>{598.0: 0.9820673168294207, 599.0: 0.017932683170579104}</t>
@@ -2194,7 +2194,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.996050552922591, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.996050552922591, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
   </si>
   <si>
     <t>{605.0: 0.9748587570621469, 475.0: 0.025141242937853105}</t>
@@ -2224,7 +2224,7 @@
     <t>{618.0: 0.9843454790823211, 246.0: 0.0019026021155964612, 789.0: 0.01375191880208235}</t>
   </si>
   <si>
-    <t>{619.0: 0.965509644191444, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
+    <t>{619.0: 0.9654101869025535, 887.0: 0.013046083606791267, 861.0: 0.021528000860446848, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{621.0: 1.0}</t>
@@ -2254,7 +2254,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028046266191142652, 502.0: 4.188093507885912e-05}</t>
+    <t>{687.0: 0.9971296091852506, 174.0: 0.0028281584829973174, 502.0: 4.223233175207543e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.04251700680272111}</t>
@@ -2269,10 +2269,10 @@
     <t>{694.0: 0.9398443029016278, 86.0: 0.06015569709837227}</t>
   </si>
   <si>
-    <t>{695.0: 0.99381143065162, 857.0: 0.00618856934838005}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661318, 492.0: 0.017884122003138155, 14.0: 0.0004997942885116642, 178.0: 3.254928612905662e-07, 623.0: 8.137321532264153e-07, 97.0: 4.11281720352593e-06}</t>
+    <t>{695.0: 0.9937865497076023, 857.0: 0.006213450292397661}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063284, 492.0: 0.01785610337176307, 14.0: 0.0004997969151486987, 178.0: 3.2528273032782204e-07, 623.0: 8.132068258195552e-07, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2284,34 +2284,37 @@
     <t>{707.0: 1.0}</t>
   </si>
   <si>
-    <t>{728.0: 0.9966110531803963, 580.0: 0.003388946819603754}</t>
-  </si>
-  <si>
-    <t>{734.0: 0.26422101444321144, 73.0: 0.13523849320665327, 888.0: 0.6005404923501354}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851535, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{728.0: 0.9966286307053943, 580.0: 0.0033713692946058093}</t>
+  </si>
+  <si>
+    <t>{734.0: 0.2644190502430502, 73.0: 0.13520755011292845, 888.0: 0.6003733996440214}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192107, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.7011235955056181, 789.0: 0.2985884233755502, 246.0: 0.00028798111883190805}</t>
+    <t>{740.0: 0.7011235955056179, 789.0: 0.2985884233755502, 246.0: 0.0002879811188319081}</t>
   </si>
   <si>
     <t>{741.0: 1.0}</t>
   </si>
   <si>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.3853415807950608, 758.0: 0.003812636165577342}</t>
+  </si>
+  <si>
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.806692854513823, 580.0: 0.1859968629289923, 728.0: 0.007310282557184455}</t>
+    <t>{752.0: 0.8066160041894902, 580.0: 0.1860455923299453, 728.0: 0.007338403480564152}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
   </si>
   <si>
-    <t>{758.0: 0.9991689750692521, 583.0: 0.0005095708829251114, 742.0: 0.0003214540478228109}</t>
+    <t>{758.0: 0.9991689750692521, 583.0: 0.0005095708829251116, 742.0: 0.0003214540478228109}</t>
   </si>
   <si>
     <t>{759.0: 0.99842555105713, 226.0: 0.0015744489428699954}</t>
@@ -2323,46 +2326,46 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100494, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9748082592125862, 171.0: 0.019238165421154786, 184.0: 0.002458085790359677, 593.0: 0.0015219813357285332, 420.0: 0.0019731835966043188, 212.0: 3.2464356640413275e-07}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725947, 81.0: 0.00034934283424021336, 172.0: 5.113931650345672e-07}</t>
+    <t>{778.0: 0.9753594977972542, 171.0: 0.018743715381244096, 184.0: 0.0024402799418704003, 593.0: 0.0014829986394605862, 420.0: 0.0019731835966043188, 212.0: 3.2464356640413275e-07}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.00034934241636705996, 172.0: 5.118110381878884e-07}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
-  </si>
-  <si>
-    <t>{787.0: 0.8357348703170024, 500.0: 0.16426512968299703}</t>
+    <t>{785.0: 0.685269395066832, 889.0: 0.31473060493316796}</t>
+  </si>
+  <si>
+    <t>{787.0: 0.8360891445003591, 500.0: 0.16391085549964057}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9990364541512768, 246.0: 0.0009635458487233018}</t>
+    <t>{789.0: 0.9990364541512764, 246.0: 0.0009635458487233018}</t>
   </si>
   <si>
     <t>{833.0: 0.9940704167244314, 17.0: 0.004682700482551158, 918.0: 0.0012468827930174563}</t>
   </si>
   <si>
-    <t>{835.0: 0.9904058244467709, 836.0: 0.009594175553229308}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7910588189347848, 536.0: 0.11520779038336174, 486.0: 0.07468196059767147, 980.0: 0.019051430084181874}</t>
-  </si>
-  <si>
-    <t>{840.0: 0.9352264726590003, 303.0: 0.06462433687495522, 144.0: 0.0001491904660445292}</t>
+    <t>{835.0: 0.9900669157761304, 836.0: 0.009933084223869343}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597998, 835.0: 0.0077484047402005445}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.7910588189347848, 536.0: 0.11520779038336176, 486.0: 0.07468196059767147, 980.0: 0.019051430084181874}</t>
+  </si>
+  <si>
+    <t>{840.0: 0.9352264726590003, 303.0: 0.06462370422455951, 144.0: 0.0001498231164402462}</t>
   </si>
   <si>
     <t>{844.0: 1.0}</t>
@@ -2371,25 +2374,25 @@
     <t>{848.0: 0.8067879325643301, 634.0: 0.19321206743566993}</t>
   </si>
   <si>
-    <t>{850.0: 0.9025032938076415, 277.0: 0.09749670619235835}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9899146625290919, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8487926071796246, 91.0: 0.0010065767865829517, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939898, 477.0: 0.08456065457257103, 307.0: 8.839720974269256e-05, 207.0: 0.002150977832567094}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.99734555984556, 976.0: 0.0026544401544401543}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9928112252580561, 695.0: 0.007188774741944104}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947865}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410218, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{850.0: 0.9025032938076418, 277.0: 0.09749670619235835}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.989835809225958, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8487926071796242, 91.0: 0.0010065767865829517, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939898, 477.0: 0.08462716049435266, 307.0: 8.839720974269256e-05, 207.0: 0.002084471910785455}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178296, 976.0: 0.0026647286821705426}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9927417586919551, 695.0: 0.007258241308044793}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947866}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101357, 253.0: 0.0007239000083155151, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
@@ -2398,7 +2401,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9969504757257864, 267.0: 0.003049524274213223}</t>
+    <t>{887.0: 0.9969948311095084, 267.0: 0.0030051688904916456}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2425,16 +2428,13 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675541, 687.0: 0.004977471676102198, 174.0: 1.3999800095412306e-05, 502.0: 2.0905624831377268e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410217, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{911.0: 0.9950083194675541, 687.0: 0.0049773524584954265, 174.0: 1.4117263642249505e-05, 502.0: 2.1081030824663275e-07}</t>
   </si>
   <si>
     <t>{914.0: 0.9042779872152105, 110.0: 0.09572201278478937}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114126}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.2237936706392746}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
@@ -2443,16 +2443,16 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9888946350590236, 297.0: 0.005990275426909785, 695.0: 0.005083434427885524, 857.0: 3.165508618097213e-05}</t>
+    <t>{919.0: 0.9890254656143604, 297.0: 0.005859444871573596, 695.0: 0.00508330715962968, 857.0: 3.178235443681668e-05}</t>
   </si>
   <si>
     <t>{921.0: 0.9865234019304316, 686.0: 0.013476598069568385}</t>
   </si>
   <si>
-    <t>{922.0: 0.9315741024854249, 887.0: 0.06821723107911948, 267.0: 0.00020866643545552278}</t>
-  </si>
-  <si>
-    <t>{928.0: 0.9650092081031307, 3.0: 0.025782688766114188, 418.0: 0.006629834254143647, 922.0: 0.0025782688766114188}</t>
+    <t>{922.0: 0.9315741024854249, 887.0: 0.06822026613606025, 267.0: 0.00020563137851477048}</t>
+  </si>
+  <si>
+    <t>{928.0: 0.9648148148148147, 3.0: 0.025925925925925932, 418.0: 0.006666666666666668, 922.0: 0.0025925925925925925}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -2461,7 +2461,7 @@
     <t>{932.0: 0.9982325910215624, 108.0: 0.0017674089784376107}</t>
   </si>
   <si>
-    <t>{933.0: 0.8432666572983653, 702.0: 0.005318616570787546, 249.0: 0.11697890198493714, 299.0: 0.03443582414590989}</t>
+    <t>{933.0: 0.8437739144187199, 702.0: 0.0052967602913918405, 249.0: 0.11649350114397815, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
     <t>{934.0: 0.9935019726154561, 5.0: 0.006498027384543977}</t>
@@ -2470,7 +2470,7 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.9879985585965653, 171.0: 0.003293328528655217, 593.0: 0.0036190543506065143, 85.0: 0.0050890585241730275}</t>
+    <t>{937.0: 0.9880009426222852, 171.0: 0.003293336475407618, 593.0: 0.0036166623781342037, 85.0: 0.0050890585241730275}</t>
   </si>
   <si>
     <t>{940.0: 0.9931610942249239, 785.0: 0.006838905775075989}</t>
@@ -2479,13 +2479,13 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.7305358356680622, 634.0: 0.10812454662003079, 848.0: 0.1613396177119069}</t>
-  </si>
-  <si>
-    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722213, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382852, 615.0: 0.04586241276171485}</t>
+    <t>{943.0: 0.7045586858250902, 634.0: 0.10993183872972913, 848.0: 0.1855094754451809}</t>
+  </si>
+  <si>
+    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722213, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211055, 615.0: 0.046231155778894494}</t>
   </si>
   <si>
     <t>{975.0: 0.9378725155834826, 152.0: 0.062127484416517435}</t>
@@ -2494,7 +2494,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 0.9504155918601317, 489.0: 0.04917254413384412, 935.0: 0.0004118640060240264}</t>
+    <t>{978.0: 0.9504155918601317, 489.0: 0.049174371686916435, 935.0: 0.0004100364529517132}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.0134902411021814}</t>
@@ -4291,7 +4291,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4302,7 +4302,7 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4313,7 +4313,7 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4324,7 +4324,7 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4346,7 +4346,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4357,7 +4357,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4368,7 +4368,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4412,7 +4412,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4467,7 +4467,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4489,7 +4489,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4500,12 +4500,12 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4527,40 +4527,40 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>605</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>630</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4571,40 +4571,40 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>632</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>632</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4615,29 +4615,29 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>634</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>633</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4681,128 +4681,128 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>635</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>634</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>636</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>638</v>
+        <v>616</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>639</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>641</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>640</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4813,51 +4813,51 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>642</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>641</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>643</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>642</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4868,40 +4868,40 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>644</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>644</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4912,62 +4912,62 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>646</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>646</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>648</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>647</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -5022,84 +5022,84 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>649</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>650</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>652</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>652</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -5110,117 +5110,117 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>654</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>207</v>
+        <v>653</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>655</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>654</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>606</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>656</v>
+        <v>606</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
+        <v>656</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>658</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>657</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -5248,7 +5248,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5259,7 +5259,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5270,7 +5270,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5292,7 +5292,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5303,7 +5303,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5314,7 +5314,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5325,7 +5325,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5358,7 +5358,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5369,7 +5369,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5413,7 +5413,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5424,7 +5424,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5457,7 +5457,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5468,7 +5468,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5479,7 +5479,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5501,7 +5501,7 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5523,7 +5523,7 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5545,7 +5545,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5556,7 +5556,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5567,7 +5567,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5589,7 +5589,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5600,7 +5600,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5611,7 +5611,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5710,7 +5710,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5721,7 +5721,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5732,7 +5732,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5743,7 +5743,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5754,7 +5754,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5776,7 +5776,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5820,7 +5820,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5864,7 +5864,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5875,7 +5875,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5886,7 +5886,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5897,7 +5897,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5963,7 +5963,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5974,7 +5974,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5996,7 +5996,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -6007,7 +6007,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6029,7 +6029,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6051,7 +6051,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6062,7 +6062,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6073,7 +6073,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6084,7 +6084,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6117,7 +6117,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6139,7 +6139,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6150,7 +6150,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6183,7 +6183,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6194,7 +6194,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6205,7 +6205,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6216,7 +6216,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6227,7 +6227,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6271,7 +6271,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6293,7 +6293,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6304,7 +6304,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6315,7 +6315,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6337,7 +6337,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6348,7 +6348,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6392,7 +6392,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6403,7 +6403,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6414,7 +6414,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6425,7 +6425,7 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6447,7 +6447,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6469,7 +6469,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6502,7 +6502,7 @@
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6513,7 +6513,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6546,7 +6546,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6579,7 +6579,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6909,7 +6909,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -7437,7 +7437,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>718</v>
+        <v>762</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7448,7 +7448,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7459,7 +7459,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7536,7 +7536,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7569,7 +7569,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7591,7 +7591,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7602,7 +7602,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7635,7 +7635,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7668,7 +7668,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7690,7 +7690,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7723,7 +7723,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7767,7 +7767,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7789,7 +7789,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7800,7 +7800,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7822,7 +7822,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7844,7 +7844,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7855,7 +7855,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7866,7 +7866,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7899,7 +7899,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7921,7 +7921,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7932,7 +7932,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7943,7 +7943,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7976,7 +7976,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -8009,7 +8009,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8053,7 +8053,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8075,7 +8075,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8097,7 +8097,7 @@
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8108,7 +8108,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8119,7 +8119,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8152,7 +8152,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8163,7 +8163,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8196,7 +8196,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8218,7 +8218,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8240,7 +8240,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -8251,7 +8251,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8262,7 +8262,7 @@
         <v>492</v>
       </c>
       <c r="C491" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8273,7 +8273,7 @@
         <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -8317,7 +8317,7 @@
         <v>497</v>
       </c>
       <c r="C496" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -8339,7 +8339,7 @@
         <v>499</v>
       </c>
       <c r="C498" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8350,7 +8350,7 @@
         <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8361,7 +8361,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8372,7 +8372,7 @@
         <v>502</v>
       </c>
       <c r="C501" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8383,7 +8383,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -8394,7 +8394,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8405,7 +8405,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8416,7 +8416,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -8878,7 +8878,7 @@
         <v>548</v>
       </c>
       <c r="C547" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -8889,7 +8889,7 @@
         <v>549</v>
       </c>
       <c r="C548" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="549" spans="1:3">
